--- a/Assets/Tables/spine_animation.xlsx
+++ b/Assets/Tables/spine_animation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepository\GitLab\yh-project\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255A7313-C9F7-41A9-BF5C-53BAE31C2F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03441188-E8DF-4C59-9957-7AE4513B5EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="28815" windowHeight="17745" tabRatio="612" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="612" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="spine_monster" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="88">
   <si>
     <t>id</t>
   </si>
@@ -380,6 +380,20 @@
   <si>
     <t>Move</t>
     <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞穴人流浪者</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击 - 投掷</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞穴人暴徒</t>
+  </si>
+  <si>
+    <t>洞穴人纵火者</t>
   </si>
 </sst>
 </file>
@@ -962,18 +976,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412DE5E1-BE8E-459C-BBD1-282AAC38EB78}">
-  <dimension ref="A1:G192"/>
+  <dimension ref="A1:G190"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K32" sqref="K32"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.625" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="5" bestFit="1" customWidth="1"/>
@@ -1672,147 +1687,372 @@
       <c r="A35" s="4"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
-      <c r="D35" s="18"/>
+      <c r="D35" s="12"/>
       <c r="E35" s="10"/>
-      <c r="F35" s="18"/>
+      <c r="F35" s="12"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="8"/>
+      <c r="A36" s="5">
+        <v>201107</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36" s="5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="8"/>
+      <c r="A37" s="5">
+        <v>201107</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" s="5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="8"/>
+      <c r="A38" s="5">
+        <v>201107</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="8"/>
+      <c r="A39" s="5">
+        <v>201107</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39" s="5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="12"/>
+      <c r="A40" s="5">
+        <v>201107</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G40" s="5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
-      <c r="D41" s="8"/>
+      <c r="D41" s="12"/>
       <c r="E41" s="10"/>
-      <c r="F41" s="8"/>
+      <c r="F41" s="12"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="8"/>
+      <c r="A42" s="5">
+        <v>201108</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G42" s="5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="8"/>
+      <c r="A43" s="5">
+        <v>201108</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G43" s="5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="8"/>
+      <c r="A44" s="5">
+        <v>201108</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G44" s="5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="12"/>
+      <c r="A45" s="5">
+        <v>201108</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G45" s="5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="4"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="12"/>
+      <c r="A46" s="5">
+        <v>201108</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G46" s="5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
-      <c r="D47" s="18"/>
+      <c r="D47" s="12"/>
       <c r="E47" s="10"/>
       <c r="F47" s="12"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="4"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="12"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="4"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="12"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="4"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="12"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="4"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="12"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="4"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="12"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
+        <v>201109</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G48" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
+        <v>201109</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="5">
+        <v>201109</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G50" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="5">
+        <v>201109</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G51" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="5">
+        <v>201109</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G52" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -1820,7 +2060,7 @@
       <c r="E53" s="10"/>
       <c r="F53" s="12"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -1828,7 +2068,7 @@
       <c r="E54" s="10"/>
       <c r="F54" s="12"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -1836,7 +2076,7 @@
       <c r="E55" s="10"/>
       <c r="F55" s="12"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -1844,7 +2084,7 @@
       <c r="E56" s="10"/>
       <c r="F56" s="12"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -1852,7 +2092,7 @@
       <c r="E57" s="10"/>
       <c r="F57" s="12"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -1860,23 +2100,23 @@
       <c r="E58" s="10"/>
       <c r="F58" s="12"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="4"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="12"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
-      <c r="D60" s="18"/>
+      <c r="D60" s="8"/>
       <c r="E60" s="10"/>
-      <c r="F60" s="12"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F60" s="8"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="4"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="8"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -1884,26 +2124,26 @@
       <c r="E62" s="10"/>
       <c r="F62" s="8"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
-      <c r="D63" s="8"/>
       <c r="E63" s="10"/>
-      <c r="F63" s="8"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F63" s="12"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
-      <c r="D64" s="8"/>
+      <c r="D64" s="12"/>
       <c r="E64" s="10"/>
-      <c r="F64" s="8"/>
+      <c r="F64" s="12"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
+      <c r="D65" s="12"/>
       <c r="E65" s="10"/>
       <c r="F65" s="12"/>
     </row>
@@ -1935,33 +2175,33 @@
       <c r="A69" s="4"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
-      <c r="D69" s="12"/>
+      <c r="D69" s="19"/>
       <c r="E69" s="10"/>
-      <c r="F69" s="12"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="4"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="12"/>
+      <c r="F69" s="15"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
-      <c r="D71" s="19"/>
+      <c r="D71" s="4"/>
       <c r="E71" s="10"/>
-      <c r="F71" s="15"/>
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="4"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="8"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
-      <c r="D73" s="4"/>
+      <c r="D73" s="8"/>
       <c r="E73" s="10"/>
-      <c r="F73" s="4"/>
+      <c r="F73" s="8"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
@@ -1975,41 +2215,41 @@
       <c r="A75" s="4"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
-      <c r="D75" s="8"/>
+      <c r="D75" s="20"/>
       <c r="E75" s="10"/>
-      <c r="F75" s="8"/>
+      <c r="F75" s="15"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
-      <c r="D76" s="8"/>
+      <c r="D76" s="20"/>
       <c r="E76" s="10"/>
-      <c r="F76" s="8"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="4"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="15"/>
+      <c r="F76" s="15"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
-      <c r="D78" s="20"/>
+      <c r="D78" s="4"/>
       <c r="E78" s="10"/>
-      <c r="F78" s="15"/>
+      <c r="F78" s="4"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="4"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="4"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
-      <c r="D80" s="4"/>
+      <c r="D80" s="8"/>
       <c r="E80" s="10"/>
-      <c r="F80" s="4"/>
+      <c r="F80" s="8"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
@@ -2017,7 +2257,7 @@
       <c r="C81" s="10"/>
       <c r="D81" s="8"/>
       <c r="E81" s="10"/>
-      <c r="F81" s="4"/>
+      <c r="F81" s="8"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
@@ -2039,33 +2279,33 @@
       <c r="A84" s="4"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
-      <c r="D84" s="8"/>
+      <c r="D84" s="20"/>
       <c r="E84" s="10"/>
-      <c r="F84" s="8"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="4"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="8"/>
+      <c r="F84" s="15"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
-      <c r="D86" s="20"/>
+      <c r="D86" s="4"/>
       <c r="E86" s="10"/>
-      <c r="F86" s="15"/>
+      <c r="F86" s="4"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="4"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="8"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
-      <c r="D88" s="4"/>
+      <c r="D88" s="8"/>
       <c r="E88" s="10"/>
-      <c r="F88" s="4"/>
+      <c r="F88" s="8"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
@@ -2099,21 +2339,19 @@
       <c r="E92" s="10"/>
       <c r="F92" s="8"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="4"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="8"/>
-    </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="4"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
-      <c r="D94" s="8"/>
+      <c r="D94" s="12"/>
       <c r="E94" s="10"/>
-      <c r="F94" s="8"/>
+      <c r="F94" s="12"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="12"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B96" s="10"/>
@@ -2167,31 +2405,33 @@
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
-      <c r="D103" s="12"/>
+      <c r="D103" s="13"/>
       <c r="E103" s="10"/>
       <c r="F103" s="12"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B104" s="10"/>
-      <c r="C104" s="10"/>
-      <c r="D104" s="12"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="12"/>
-    </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="4"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
-      <c r="D105" s="13"/>
+      <c r="D105" s="4"/>
       <c r="E105" s="10"/>
-      <c r="F105" s="12"/>
+      <c r="F105" s="4"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="4"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="8"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
-      <c r="D107" s="4"/>
+      <c r="D107" s="8"/>
       <c r="E107" s="10"/>
-      <c r="F107" s="4"/>
+      <c r="F107" s="8"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
@@ -2205,25 +2445,25 @@
       <c r="A109" s="4"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
-      <c r="D109" s="8"/>
+      <c r="D109" s="14"/>
       <c r="E109" s="10"/>
-      <c r="F109" s="8"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="4"/>
-      <c r="B110" s="10"/>
-      <c r="C110" s="10"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="8"/>
+      <c r="F109" s="15"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="4"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
-      <c r="D111" s="14"/>
+      <c r="D111" s="8"/>
       <c r="E111" s="10"/>
-      <c r="F111" s="15"/>
+      <c r="F111" s="4"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="4"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="8"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
@@ -2231,7 +2471,7 @@
       <c r="C113" s="10"/>
       <c r="D113" s="8"/>
       <c r="E113" s="10"/>
-      <c r="F113" s="4"/>
+      <c r="F113" s="8"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="4"/>
@@ -2239,39 +2479,39 @@
       <c r="C114" s="10"/>
       <c r="D114" s="8"/>
       <c r="E114" s="10"/>
-      <c r="F114" s="8"/>
+      <c r="F114" s="4"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="4"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
-      <c r="D115" s="8"/>
+      <c r="D115" s="12"/>
       <c r="E115" s="10"/>
-      <c r="F115" s="8"/>
+      <c r="F115" s="12"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="4"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
-      <c r="D116" s="8"/>
+      <c r="D116" s="12"/>
       <c r="E116" s="10"/>
-      <c r="F116" s="4"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="4"/>
-      <c r="B117" s="10"/>
-      <c r="C117" s="10"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="10"/>
-      <c r="F117" s="12"/>
+      <c r="F116" s="12"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
-      <c r="D118" s="12"/>
+      <c r="D118" s="8"/>
       <c r="E118" s="10"/>
-      <c r="F118" s="12"/>
+      <c r="F118" s="4"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="4"/>
+      <c r="B119" s="10"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="8"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
@@ -2279,7 +2519,7 @@
       <c r="C120" s="10"/>
       <c r="D120" s="8"/>
       <c r="E120" s="10"/>
-      <c r="F120" s="4"/>
+      <c r="F120" s="8"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
@@ -2297,21 +2537,21 @@
       <c r="E122" s="10"/>
       <c r="F122" s="8"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="4"/>
-      <c r="B123" s="10"/>
-      <c r="C123" s="10"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="10"/>
-      <c r="F123" s="8"/>
-    </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
       <c r="D124" s="8"/>
       <c r="E124" s="10"/>
-      <c r="F124" s="8"/>
+      <c r="F124" s="4"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="4"/>
+      <c r="B125" s="10"/>
+      <c r="C125" s="10"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="8"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
@@ -2319,7 +2559,7 @@
       <c r="C126" s="10"/>
       <c r="D126" s="8"/>
       <c r="E126" s="10"/>
-      <c r="F126" s="4"/>
+      <c r="F126" s="8"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
@@ -2345,14 +2585,6 @@
       <c r="E129" s="10"/>
       <c r="F129" s="8"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="4"/>
-      <c r="B130" s="10"/>
-      <c r="C130" s="10"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="10"/>
-      <c r="F130" s="8"/>
-    </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="4"/>
       <c r="B131" s="10"/>
@@ -2361,13 +2593,21 @@
       <c r="E131" s="10"/>
       <c r="F131" s="8"/>
     </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="4"/>
+      <c r="B132" s="10"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="8"/>
+    </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
       <c r="B133" s="10"/>
       <c r="C133" s="10"/>
       <c r="D133" s="8"/>
       <c r="E133" s="10"/>
-      <c r="F133" s="8"/>
+      <c r="F133" s="4"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
@@ -2383,7 +2623,7 @@
       <c r="C135" s="10"/>
       <c r="D135" s="8"/>
       <c r="E135" s="10"/>
-      <c r="F135" s="4"/>
+      <c r="F135" s="8"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="4"/>
@@ -2393,14 +2633,6 @@
       <c r="E136" s="10"/>
       <c r="F136" s="8"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="4"/>
-      <c r="B137" s="10"/>
-      <c r="C137" s="10"/>
-      <c r="D137" s="8"/>
-      <c r="E137" s="10"/>
-      <c r="F137" s="8"/>
-    </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="4"/>
       <c r="B138" s="10"/>
@@ -2409,6 +2641,14 @@
       <c r="E138" s="10"/>
       <c r="F138" s="8"/>
     </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" s="4"/>
+      <c r="B139" s="10"/>
+      <c r="C139" s="10"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="8"/>
+    </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="4"/>
       <c r="B140" s="10"/>
@@ -2433,21 +2673,21 @@
       <c r="E142" s="10"/>
       <c r="F142" s="8"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" s="4"/>
-      <c r="B143" s="10"/>
-      <c r="C143" s="10"/>
-      <c r="D143" s="8"/>
-      <c r="E143" s="10"/>
-      <c r="F143" s="8"/>
-    </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="4"/>
       <c r="B144" s="10"/>
       <c r="C144" s="10"/>
       <c r="D144" s="8"/>
       <c r="E144" s="10"/>
-      <c r="F144" s="8"/>
+      <c r="F144" s="4"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="4"/>
+      <c r="B145" s="10"/>
+      <c r="C145" s="10"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="8"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
@@ -2455,7 +2695,7 @@
       <c r="C146" s="10"/>
       <c r="D146" s="8"/>
       <c r="E146" s="10"/>
-      <c r="F146" s="4"/>
+      <c r="F146" s="8"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="4"/>
@@ -2505,21 +2745,21 @@
       <c r="E152" s="10"/>
       <c r="F152" s="8"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="4"/>
-      <c r="B153" s="10"/>
-      <c r="C153" s="10"/>
-      <c r="D153" s="8"/>
-      <c r="E153" s="10"/>
-      <c r="F153" s="8"/>
-    </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="4"/>
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
       <c r="D154" s="8"/>
       <c r="E154" s="10"/>
-      <c r="F154" s="8"/>
+      <c r="F154" s="4"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" s="4"/>
+      <c r="B155" s="10"/>
+      <c r="C155" s="10"/>
+      <c r="D155" s="8"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="8"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="4"/>
@@ -2527,7 +2767,7 @@
       <c r="C156" s="10"/>
       <c r="D156" s="8"/>
       <c r="E156" s="10"/>
-      <c r="F156" s="4"/>
+      <c r="F156" s="8"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="4"/>
@@ -2585,21 +2825,21 @@
       <c r="E163" s="10"/>
       <c r="F163" s="8"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164" s="4"/>
-      <c r="B164" s="10"/>
-      <c r="C164" s="10"/>
-      <c r="D164" s="8"/>
-      <c r="E164" s="10"/>
-      <c r="F164" s="8"/>
-    </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="4"/>
       <c r="B165" s="10"/>
       <c r="C165" s="10"/>
       <c r="D165" s="8"/>
       <c r="E165" s="10"/>
-      <c r="F165" s="8"/>
+      <c r="F165" s="4"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166" s="4"/>
+      <c r="B166" s="10"/>
+      <c r="C166" s="10"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="10"/>
+      <c r="F166" s="8"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="4"/>
@@ -2607,7 +2847,7 @@
       <c r="C167" s="10"/>
       <c r="D167" s="8"/>
       <c r="E167" s="10"/>
-      <c r="F167" s="4"/>
+      <c r="F167" s="8"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="4"/>
@@ -2665,14 +2905,6 @@
       <c r="E174" s="10"/>
       <c r="F174" s="8"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="4"/>
-      <c r="B175" s="10"/>
-      <c r="C175" s="10"/>
-      <c r="D175" s="8"/>
-      <c r="E175" s="10"/>
-      <c r="F175" s="8"/>
-    </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="4"/>
       <c r="B176" s="10"/>
@@ -2681,6 +2913,14 @@
       <c r="E176" s="10"/>
       <c r="F176" s="8"/>
     </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A177" s="4"/>
+      <c r="B177" s="10"/>
+      <c r="C177" s="10"/>
+      <c r="D177" s="8"/>
+      <c r="E177" s="10"/>
+      <c r="F177" s="8"/>
+    </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="4"/>
       <c r="B178" s="10"/>
@@ -2705,14 +2945,6 @@
       <c r="E180" s="10"/>
       <c r="F180" s="8"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A181" s="4"/>
-      <c r="B181" s="10"/>
-      <c r="C181" s="10"/>
-      <c r="D181" s="8"/>
-      <c r="E181" s="10"/>
-      <c r="F181" s="8"/>
-    </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="4"/>
       <c r="B182" s="10"/>
@@ -2721,21 +2953,29 @@
       <c r="E182" s="10"/>
       <c r="F182" s="8"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184" s="4"/>
-      <c r="B184" s="10"/>
-      <c r="C184" s="10"/>
-      <c r="D184" s="8"/>
-      <c r="E184" s="10"/>
-      <c r="F184" s="8"/>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A183" s="4"/>
+      <c r="B183" s="10"/>
+      <c r="C183" s="10"/>
+      <c r="D183" s="8"/>
+      <c r="E183" s="10"/>
+      <c r="F183" s="8"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="4"/>
       <c r="B185" s="10"/>
       <c r="C185" s="10"/>
-      <c r="D185" s="8"/>
+      <c r="D185" s="12"/>
       <c r="E185" s="10"/>
-      <c r="F185" s="8"/>
+      <c r="F185" s="12"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A186" s="4"/>
+      <c r="B186" s="10"/>
+      <c r="C186" s="10"/>
+      <c r="D186" s="12"/>
+      <c r="E186" s="10"/>
+      <c r="F186" s="12"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="4"/>
@@ -2745,14 +2985,6 @@
       <c r="E187" s="10"/>
       <c r="F187" s="12"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188" s="4"/>
-      <c r="B188" s="10"/>
-      <c r="C188" s="10"/>
-      <c r="D188" s="12"/>
-      <c r="E188" s="10"/>
-      <c r="F188" s="12"/>
-    </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="4"/>
       <c r="B189" s="10"/>
@@ -2761,21 +2993,13 @@
       <c r="E189" s="10"/>
       <c r="F189" s="12"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A191" s="4"/>
-      <c r="B191" s="10"/>
-      <c r="C191" s="10"/>
-      <c r="D191" s="12"/>
-      <c r="E191" s="10"/>
-      <c r="F191" s="12"/>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A192" s="4"/>
-      <c r="B192" s="10"/>
-      <c r="C192" s="10"/>
-      <c r="D192" s="12"/>
-      <c r="E192" s="10"/>
-      <c r="F192" s="12"/>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" s="4"/>
+      <c r="B190" s="10"/>
+      <c r="C190" s="10"/>
+      <c r="D190" s="12"/>
+      <c r="E190" s="10"/>
+      <c r="F190" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
